--- a/Datasets/seqs/11.28.20_novel_sequences.xlsx
+++ b/Datasets/seqs/11.28.20_novel_sequences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makow\Documents\GitHub\UniRep\Datasets\seqs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF64559C-12AC-472D-BB1D-9D6927592592}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2C505E-6F76-4E89-A40F-965DBA4D4A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.28.20_novel_sequences" sheetId="1" r:id="rId1"/>
@@ -64,18 +64,12 @@
     <t>V</t>
   </si>
   <si>
-    <t>V51I</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRLNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>V51L</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPEGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>N53E</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGSTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
@@ -100,152 +91,161 @@
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTSYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>T58S</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTVYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>T58V</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYQQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
     <t>Q</t>
   </si>
   <si>
-    <t>N60Q</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYGQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>N60G</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYEQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>N60E</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYDQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>N60D</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYSQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>N60S</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYTQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>N60T</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQNFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>K62N</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQRFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>K62R</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCGRSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>A93G</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSELLDDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>N96E</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSDLLDDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>N96D</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNVLDDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>L97V</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLFDDWGQGTTVTVSS</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>L98F</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLEDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>D101E</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLMDDWGQGTTVTVSS</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>L98M</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDNWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>D102N</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNGRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDQWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>D102Q</t>
-  </si>
-  <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNSRGTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
   </si>
   <si>
-    <t>G54S</t>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <t>N18</t>
+  </si>
+  <si>
+    <t>N19</t>
+  </si>
+  <si>
+    <t>N20</t>
+  </si>
+  <si>
+    <t>N21</t>
+  </si>
+  <si>
+    <t>N22</t>
+  </si>
+  <si>
+    <t>N23</t>
+  </si>
+  <si>
+    <t>N24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +380,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,9 +740,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1085,21 +1099,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1132,22 +1146,22 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>3</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>5</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>6</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>7</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>8</v>
       </c>
       <c r="V5" t="s">
@@ -1157,9 +1171,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1188,29 +1202,26 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
         <v>11</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5.726</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>12</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>51</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>13</v>
-      </c>
-      <c r="U6" t="s">
-        <v>14</v>
       </c>
       <c r="V6">
         <v>-3.197793645</v>
@@ -1221,16 +1232,13 @@
       <c r="X6">
         <v>1</v>
       </c>
-      <c r="AA6">
-        <v>33</v>
-      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1239,7 +1247,7 @@
         <v>5.726</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>51</v>
@@ -1256,29 +1264,26 @@
       <c r="J7">
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7">
+        <v>5.726</v>
+      </c>
+      <c r="S7" t="s">
         <v>15</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>5.726</v>
-      </c>
-      <c r="R7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S7">
+      <c r="T7">
         <v>51</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>13</v>
-      </c>
-      <c r="U7" t="s">
-        <v>17</v>
       </c>
       <c r="V7">
         <v>-2.8245105580000001</v>
@@ -1289,16 +1294,13 @@
       <c r="X7">
         <v>2</v>
       </c>
-      <c r="AA7">
-        <v>50</v>
-      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1307,13 +1309,13 @@
         <v>9.891</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>-3.145359112</v>
@@ -1324,29 +1326,26 @@
       <c r="J8">
         <v>3</v>
       </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
       <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>9.891</v>
+      </c>
+      <c r="S8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8">
+        <v>53</v>
+      </c>
+      <c r="U8" t="s">
         <v>18</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>9.891</v>
-      </c>
-      <c r="R8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8">
-        <v>53</v>
-      </c>
-      <c r="T8" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" t="s">
-        <v>21</v>
       </c>
       <c r="V8">
         <v>-3.145359112</v>
@@ -1357,16 +1356,13 @@
       <c r="X8">
         <v>3</v>
       </c>
-      <c r="AA8">
-        <v>54</v>
-      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1375,13 +1371,13 @@
         <v>55.692</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>-3.1154477360000001</v>
@@ -1392,49 +1388,43 @@
       <c r="J9">
         <v>4</v>
       </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
       <c r="O9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9">
         <v>2</v>
       </c>
-      <c r="Q9">
-        <v>2.4940000000000002</v>
-      </c>
-      <c r="R9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9">
-        <v>58</v>
-      </c>
-      <c r="T9" t="s">
-        <v>24</v>
+      <c r="R9">
+        <v>55.692</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9">
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="V9">
-        <v>-3.304609262</v>
+        <v>-3.1154477360000001</v>
       </c>
       <c r="W9">
-        <v>1.7037564119999999</v>
+        <v>1.479321439</v>
       </c>
       <c r="X9">
-        <v>5</v>
-      </c>
-      <c r="AA9">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1443,13 +1433,13 @@
         <v>2.4940000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>-3.304609262</v>
@@ -1460,49 +1450,43 @@
       <c r="J10">
         <v>5</v>
       </c>
-      <c r="N10">
+      <c r="O10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2.4940000000000002</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="2">
+        <v>58</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="2">
+        <v>-3.8547238670000001</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1.160145475</v>
+      </c>
+      <c r="X10" s="2">
         <v>6</v>
       </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2.4940000000000002</v>
-      </c>
-      <c r="R10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10">
-        <v>58</v>
-      </c>
-      <c r="T10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10">
-        <v>-3.8547238670000001</v>
-      </c>
-      <c r="W10">
-        <v>1.160145475</v>
-      </c>
-      <c r="X10">
-        <v>6</v>
-      </c>
-      <c r="AA10">
-        <v>56</v>
-      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1517,7 +1501,7 @@
         <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>-3.8547238670000001</v>
@@ -1528,29 +1512,26 @@
       <c r="J11">
         <v>6</v>
       </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
       <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11">
+        <v>55</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>16.245000000000001</v>
       </c>
-      <c r="R11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11">
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11">
         <v>60</v>
       </c>
-      <c r="T11" t="s">
-        <v>20</v>
-      </c>
       <c r="U11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="V11">
         <v>-2.9838284160000001</v>
@@ -1561,16 +1542,13 @@
       <c r="X11">
         <v>7</v>
       </c>
-      <c r="AA11">
-        <v>95</v>
-      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1579,13 +1557,13 @@
         <v>16.245000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <v>-2.9838284160000001</v>
@@ -1596,29 +1574,26 @@
       <c r="J12">
         <v>7</v>
       </c>
-      <c r="N12">
-        <v>9</v>
-      </c>
       <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>16.245000000000001</v>
       </c>
-      <c r="R12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12">
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12">
         <v>60</v>
       </c>
-      <c r="T12" t="s">
-        <v>20</v>
-      </c>
       <c r="U12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="V12">
         <v>-3.4704821199999998</v>
@@ -1629,16 +1604,13 @@
       <c r="X12">
         <v>8</v>
       </c>
-      <c r="AA12">
-        <v>97</v>
-      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1647,13 +1619,13 @@
         <v>16.245000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>-3.4704821199999998</v>
@@ -1664,29 +1636,26 @@
       <c r="J13">
         <v>8</v>
       </c>
-      <c r="N13">
-        <v>8</v>
-      </c>
       <c r="O13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13">
+        <v>57</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>16.245000000000001</v>
       </c>
-      <c r="R13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13">
+      <c r="S13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13">
         <v>60</v>
       </c>
-      <c r="T13" t="s">
-        <v>20</v>
-      </c>
       <c r="U13" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="V13">
         <v>-3.3815876970000001</v>
@@ -1697,16 +1666,13 @@
       <c r="X13">
         <v>9</v>
       </c>
-      <c r="AA13">
-        <v>102</v>
-      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1715,13 +1681,13 @@
         <v>16.245000000000001</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14">
         <v>-3.3815876970000001</v>
@@ -1732,29 +1698,26 @@
       <c r="J14">
         <v>9</v>
       </c>
-      <c r="N14">
-        <v>7</v>
-      </c>
       <c r="O14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14">
+        <v>58</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14">
         <v>2</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>16.245000000000001</v>
       </c>
-      <c r="R14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14">
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14">
         <v>60</v>
       </c>
-      <c r="T14" t="s">
-        <v>20</v>
-      </c>
       <c r="U14" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="V14">
         <v>-2.705671798</v>
@@ -1766,12 +1729,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1780,13 +1743,13 @@
         <v>16.245000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <v>-2.705671798</v>
@@ -1797,46 +1760,43 @@
       <c r="J15">
         <v>10</v>
       </c>
-      <c r="N15">
+      <c r="O15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>16.245000000000001</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="2">
+        <v>60</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="2">
+        <v>-3.729261261</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1.649172973</v>
+      </c>
+      <c r="X15" s="2">
         <v>11</v>
       </c>
-      <c r="O15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>16.245000000000001</v>
-      </c>
-      <c r="R15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15">
-        <v>60</v>
-      </c>
-      <c r="T15" t="s">
-        <v>20</v>
-      </c>
-      <c r="U15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V15">
-        <v>-3.729261261</v>
-      </c>
-      <c r="W15">
-        <v>1.649172973</v>
-      </c>
-      <c r="X15">
-        <v>11</v>
-      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1845,13 +1805,13 @@
         <v>16.245000000000001</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16">
         <v>-3.729261261</v>
@@ -1862,29 +1822,26 @@
       <c r="J16">
         <v>11</v>
       </c>
-      <c r="N16">
-        <v>12</v>
-      </c>
       <c r="O16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16">
         <v>0</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>16.245000000000001</v>
       </c>
-      <c r="R16" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16">
+      <c r="S16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16">
         <v>60</v>
       </c>
-      <c r="T16" t="s">
-        <v>20</v>
-      </c>
       <c r="U16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="V16">
         <v>-2.8416346190000001</v>
@@ -1896,12 +1853,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1910,13 +1867,13 @@
         <v>16.245000000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17">
         <v>-2.8416346190000001</v>
@@ -1927,29 +1884,26 @@
       <c r="J17">
         <v>12</v>
       </c>
-      <c r="N17">
-        <v>13</v>
-      </c>
       <c r="O17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>15.786</v>
       </c>
-      <c r="R17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17">
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17">
         <v>62</v>
       </c>
-      <c r="T17" t="s">
-        <v>45</v>
-      </c>
       <c r="U17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="V17">
         <v>-2.855332395</v>
@@ -1961,12 +1915,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1975,13 +1929,13 @@
         <v>15.786</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18">
         <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>-2.855332395</v>
@@ -1992,29 +1946,26 @@
       <c r="J18">
         <v>13</v>
       </c>
-      <c r="N18">
-        <v>14</v>
-      </c>
       <c r="O18" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18">
         <v>3</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>15.786</v>
       </c>
-      <c r="R18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18">
+      <c r="S18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18">
         <v>62</v>
       </c>
-      <c r="T18" t="s">
-        <v>45</v>
-      </c>
       <c r="U18" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="V18">
         <v>-2.7233479190000001</v>
@@ -2026,12 +1977,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -2040,13 +1991,13 @@
         <v>15.786</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>-2.7233479190000001</v>
@@ -2057,46 +2008,43 @@
       <c r="J19">
         <v>14</v>
       </c>
-      <c r="N19">
+      <c r="O19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>87.088999999999999</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="3">
+        <v>93</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" s="3">
+        <v>-2.8008770900000002</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1.254026447</v>
+      </c>
+      <c r="X19" s="3">
         <v>15</v>
       </c>
-      <c r="O19" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>87.088999999999999</v>
-      </c>
-      <c r="R19" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19">
-        <v>93</v>
-      </c>
-      <c r="T19" t="s">
-        <v>51</v>
-      </c>
-      <c r="U19" t="s">
-        <v>52</v>
-      </c>
-      <c r="V19">
-        <v>-2.8008770900000002</v>
-      </c>
-      <c r="W19">
-        <v>1.254026447</v>
-      </c>
-      <c r="X19">
-        <v>15</v>
-      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2105,13 +2053,13 @@
         <v>87.088999999999999</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>-2.8008770900000002</v>
@@ -2122,46 +2070,43 @@
       <c r="J20">
         <v>15</v>
       </c>
-      <c r="N20">
+      <c r="O20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2.4630000000000001</v>
-      </c>
-      <c r="R20" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20">
+      <c r="T20" s="3">
         <v>96</v>
       </c>
-      <c r="T20" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" t="s">
-        <v>54</v>
-      </c>
-      <c r="V20">
+      <c r="U20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="3">
         <v>-3.1301058479999999</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="3">
         <v>1.766387704</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2170,13 +2115,13 @@
         <v>2.4630000000000001</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <v>-3.1301058479999999</v>
@@ -2187,46 +2132,43 @@
       <c r="J21">
         <v>16</v>
       </c>
-      <c r="N21">
-        <v>16</v>
-      </c>
-      <c r="O21" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21">
+      <c r="O21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2</v>
       </c>
-      <c r="Q21">
+      <c r="R21" s="3">
         <v>2.4630000000000001</v>
       </c>
-      <c r="R21" t="s">
-        <v>38</v>
-      </c>
-      <c r="S21">
+      <c r="S21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" s="3">
         <v>96</v>
       </c>
-      <c r="T21" t="s">
-        <v>20</v>
-      </c>
-      <c r="U21" t="s">
-        <v>56</v>
-      </c>
-      <c r="V21">
+      <c r="U21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="3">
         <v>-3.2029502750000001</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="3">
         <v>1.3425657090000001</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2235,13 +2177,13 @@
         <v>2.4630000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22">
         <v>-3.2029502750000001</v>
@@ -2252,29 +2194,26 @@
       <c r="J22">
         <v>17</v>
       </c>
-      <c r="N22">
-        <v>18</v>
-      </c>
       <c r="O22" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>5.0430000000000001</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>13</v>
       </c>
-      <c r="S22">
-        <v>98</v>
-      </c>
-      <c r="T22" t="s">
-        <v>16</v>
+      <c r="T22">
+        <v>97</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="V22">
         <v>-3.069977046</v>
@@ -2286,12 +2225,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2306,7 +2245,7 @@
         <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <v>-3.069977046</v>
@@ -2317,29 +2256,26 @@
       <c r="J23">
         <v>18</v>
       </c>
-      <c r="N23">
-        <v>19</v>
-      </c>
       <c r="O23" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23">
+        <v>67</v>
+      </c>
+      <c r="P23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23">
         <v>1</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>4.79</v>
       </c>
-      <c r="R23" t="s">
-        <v>60</v>
-      </c>
-      <c r="S23">
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23">
         <v>98</v>
       </c>
-      <c r="T23" t="s">
-        <v>16</v>
-      </c>
       <c r="U23" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="V23">
         <v>-3.0459021489999998</v>
@@ -2351,12 +2287,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2365,13 +2301,13 @@
         <v>4.79</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F24">
         <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24">
         <v>-3.0459021489999998</v>
@@ -2382,29 +2318,26 @@
       <c r="J24">
         <v>19</v>
       </c>
-      <c r="N24">
-        <v>21</v>
-      </c>
       <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24">
+        <v>68</v>
+      </c>
+      <c r="P24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24">
         <v>2</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>82.826999999999998</v>
       </c>
-      <c r="R24" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24">
+      <c r="S24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24">
         <v>101</v>
       </c>
-      <c r="T24" t="s">
-        <v>38</v>
-      </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="V24">
         <v>-3.3561971069999998</v>
@@ -2416,12 +2349,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2430,13 +2363,13 @@
         <v>82.826999999999998</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>-3.3561971069999998</v>
@@ -2447,29 +2380,26 @@
       <c r="J25">
         <v>20</v>
       </c>
-      <c r="N25">
-        <v>20</v>
-      </c>
       <c r="O25" t="s">
-        <v>64</v>
-      </c>
-      <c r="P25">
+        <v>69</v>
+      </c>
+      <c r="P25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25">
         <v>3</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>4.79</v>
       </c>
-      <c r="R25" t="s">
-        <v>65</v>
-      </c>
-      <c r="S25">
+      <c r="S25" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25">
         <v>98</v>
       </c>
-      <c r="T25" t="s">
-        <v>16</v>
-      </c>
       <c r="U25" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="V25">
         <v>-2.9832269889999998</v>
@@ -2481,12 +2411,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2495,13 +2425,13 @@
         <v>4.79</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F26">
         <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26">
         <v>-2.9832269889999998</v>
@@ -2512,29 +2442,26 @@
       <c r="J26">
         <v>21</v>
       </c>
-      <c r="N26">
-        <v>22</v>
-      </c>
       <c r="O26" t="s">
-        <v>67</v>
-      </c>
-      <c r="P26">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26">
         <v>2</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1.0449999999999999</v>
       </c>
-      <c r="R26" t="s">
-        <v>20</v>
-      </c>
-      <c r="S26">
-        <v>101</v>
-      </c>
-      <c r="T26" t="s">
-        <v>38</v>
+      <c r="S26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26">
+        <v>102</v>
       </c>
       <c r="U26" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="V26">
         <v>-3.1119624730000002</v>
@@ -2546,12 +2473,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2560,13 +2487,13 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>-3.1119624730000002</v>
@@ -2577,29 +2504,26 @@
       <c r="J27">
         <v>22</v>
       </c>
-      <c r="N27">
-        <v>23</v>
-      </c>
       <c r="O27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27">
         <v>0</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1.0449999999999999</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>102</v>
+      </c>
+      <c r="U27" t="s">
         <v>30</v>
-      </c>
-      <c r="S27">
-        <v>101</v>
-      </c>
-      <c r="T27" t="s">
-        <v>38</v>
-      </c>
-      <c r="U27" t="s">
-        <v>70</v>
       </c>
       <c r="V27">
         <v>-2.9628369029999999</v>
@@ -2611,12 +2535,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2625,13 +2549,13 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F28">
         <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>-2.9628369029999999</v>
@@ -2642,29 +2566,27 @@
       <c r="J28">
         <v>23</v>
       </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
+      <c r="L28" s="1"/>
       <c r="O28" t="s">
-        <v>71</v>
-      </c>
-      <c r="P28">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>42.688000000000002</v>
       </c>
-      <c r="R28" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28">
-        <v>56</v>
-      </c>
-      <c r="T28" t="s">
-        <v>33</v>
+      <c r="S28" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28">
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="V28">
         <v>-2.9308908389999999</v>
@@ -2675,14 +2597,13 @@
       <c r="X28">
         <v>24</v>
       </c>
-      <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2691,13 +2612,13 @@
         <v>42.688000000000002</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29">
         <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H29">
         <v>-2.9308908389999999</v>
@@ -2710,6 +2631,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>